--- a/phancong.xlsx
+++ b/phancong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THONG\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE334D67-D807-4EE0-87B2-94F5A12C2CA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04AF4BA-8F82-4397-B799-AE9D06CABD62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{832418C2-D446-4526-90CA-5919398BB425}"/>
   </bookViews>
@@ -144,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,8 +186,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,8 +236,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -254,19 +266,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -295,10 +372,32 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -621,44 +720,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E84AA57-C567-4102-994D-2E7DF86B5156}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="74.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="80.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="30" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" style="2" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="1"/>
@@ -667,150 +766,154 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>43966</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="17"/>
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
-      <c r="B5" s="12" t="s">
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17"/>
+      <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="17"/>
       <c r="B6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
-      <c r="B8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
       <c r="B10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
-      <c r="B11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15"/>
-      <c r="B12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
-      <c r="B13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="11" t="s">
+    <row r="15" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="16" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A3:A8"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
